--- a/employees.xlsx
+++ b/employees.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -32,6 +32,18 @@
     <t>Age</t>
   </si>
   <si>
+    <t>tran tuan trong</t>
+  </si>
+  <si>
+    <t>123321</t>
+  </si>
+  <si>
+    <t>tronghjkl@gmail.com</t>
+  </si>
+  <si>
+    <t>09876554321</t>
+  </si>
+  <si>
     <t>tran van a</t>
   </si>
   <si>
@@ -44,15 +56,15 @@
     <t>0912331221</t>
   </si>
   <si>
-    <t>tran tuan trong</t>
-  </si>
-  <si>
     <t>123</t>
   </si>
   <si>
     <t>ho xuan dinh</t>
   </si>
   <si>
+    <t>11111111</t>
+  </si>
+  <si>
     <t>tran tan sang</t>
   </si>
   <si>
@@ -63,6 +75,90 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>tran tuan trong4</t>
+  </si>
+  <si>
+    <t>1111112</t>
+  </si>
+  <si>
+    <t>1111111</t>
+  </si>
+  <si>
+    <t>1233211</t>
+  </si>
+  <si>
+    <t>Tran Tuan Trong</t>
+  </si>
+  <si>
+    <t>1233211.0</t>
+  </si>
+  <si>
+    <t>1.233211231E9</t>
+  </si>
+  <si>
+    <t>asdsadaq</t>
+  </si>
+  <si>
+    <t>1233211231</t>
+  </si>
+  <si>
+    <t>qweqweqw</t>
+  </si>
+  <si>
+    <t>sadsazcx</t>
+  </si>
+  <si>
+    <t>asdsada</t>
+  </si>
+  <si>
+    <t>33211.0</t>
+  </si>
+  <si>
+    <t>11233131</t>
+  </si>
+  <si>
+    <t>112331</t>
+  </si>
+  <si>
+    <t>asdsadaq1</t>
+  </si>
+  <si>
+    <t>sadsazcx1</t>
+  </si>
+  <si>
+    <t>qweqweq</t>
+  </si>
+  <si>
+    <t>asdsada1</t>
+  </si>
+  <si>
+    <t>asdsadaq11</t>
+  </si>
+  <si>
+    <t>sadsazcx11</t>
+  </si>
+  <si>
+    <t>1123312</t>
+  </si>
+  <si>
+    <t>1123313</t>
+  </si>
+  <si>
+    <t>qwerty1t</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>qwertyt</t>
+  </si>
+  <si>
+    <t>2727271</t>
+  </si>
+  <si>
+    <t>272727</t>
   </si>
 </sst>
 </file>
@@ -107,7 +203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,7 +246,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="n">
-        <v>28.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="3">
@@ -164,13 +260,13 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
-        <v>23.0</v>
+        <v>28.0</v>
       </c>
     </row>
     <row r="4">
@@ -178,16 +274,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>23.0</v>
@@ -198,16 +294,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>23.0</v>
@@ -218,19 +314,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F6" t="n">
-        <v>18.0</v>
+        <v>23.0</v>
       </c>
     </row>
     <row r="7">
@@ -238,10 +334,10 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -258,19 +354,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="F8" t="n">
-        <v>23.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="9">
@@ -278,18 +374,858 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F14" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F42" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>46</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50" t="n">
+        <v>23.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51" t="n">
         <v>23.0</v>
       </c>
     </row>
